--- a/xlfiles/Chapter3.xlsx
+++ b/xlfiles/Chapter3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A580EE1D-62BA-4995-9CA9-BCB863AED781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849FDDE-7618-3944-AA2F-BECAAF490705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment data" sheetId="1" r:id="rId1"/>
@@ -527,12 +527,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,21 +759,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -801,44 +801,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,49 +848,47 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -908,7 +906,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2418,28 +2416,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092A182E-02B0-8447-9474-8F02EF93B344}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>1964</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3+1</f>
+        <v>1965</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3+1</f>
+        <v>1966</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3+1</f>
+        <v>1967</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3+1</f>
+        <v>1968</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3+1</f>
+        <v>1969</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3+1</f>
+        <v>1970</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3+1</f>
+        <v>1971</v>
+      </c>
+      <c r="K3" s="3">
+        <f>J3+1</f>
+        <v>1972</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3+1</f>
+        <v>1973</v>
+      </c>
+      <c r="M3" s="3">
+        <f>L3+1</f>
+        <v>1974</v>
+      </c>
+      <c r="N3" s="3">
+        <f>M3+1</f>
+        <v>1975</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N3+1</f>
+        <v>1976</v>
+      </c>
+      <c r="P3" s="3">
+        <f>O3+1</f>
+        <v>1977</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>P3+1</f>
+        <v>1978</v>
+      </c>
+      <c r="R3" s="3">
+        <f>Q3+1</f>
+        <v>1979</v>
+      </c>
+      <c r="S3" s="3">
+        <f>R3+1</f>
+        <v>1980</v>
+      </c>
+      <c r="T3" s="3">
+        <f>S3+1</f>
+        <v>1981</v>
+      </c>
+      <c r="U3" s="3">
+        <f>T3+1</f>
+        <v>1982</v>
+      </c>
+      <c r="V3" s="3">
+        <f>U3+1</f>
+        <v>1983</v>
+      </c>
+      <c r="W3" s="3">
+        <f>V3+1</f>
+        <v>1984</v>
+      </c>
+      <c r="X3" s="3">
+        <f>W3+1</f>
+        <v>1985</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>X3+1</f>
+        <v>1986</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>Y3+1</f>
+        <v>1987</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Z3+1</f>
+        <v>1988</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>AA3+1</f>
+        <v>1989</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>AB3+1</f>
+        <v>1990</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>AC3+1</f>
+        <v>1991</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>AD3+1</f>
+        <v>1992</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>AE3+1</f>
+        <v>1993</v>
+      </c>
+      <c r="AG3" s="3">
+        <f>AF3+1</f>
+        <v>1994</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>AG3+1</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1964</v>
       </c>
@@ -2447,7 +2574,7 @@
         <v>116.67400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A35" si="0">A4+1</f>
         <v>1965</v>
@@ -2456,13 +2583,13 @@
         <v>24.542000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>1966</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>1967</v>
@@ -2471,7 +2598,7 @@
         <v>338.53500000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>1968</v>
@@ -2483,7 +2610,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>1969</v>
@@ -2495,7 +2622,7 @@
         <v>12.058999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2522,7 +2649,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>1971</v>
@@ -2561,7 +2688,7 @@
         <v>7.6740000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>1972</v>
@@ -2592,7 +2719,7 @@
         <v>8.8989999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>1973</v>
@@ -2649,7 +2776,7 @@
         <v>138.32300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>1974</v>
@@ -2696,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>1975</v>
@@ -2745,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>1976</v>
@@ -3547,11 +3674,11 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="18" width="8.875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="18" width="8.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
@@ -3714,7 +3841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f>'Payment data'!A18</f>
         <v>1978</v>
@@ -3788,7 +3915,7 @@
         <v>1.0005239615167589</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f>'Payment data'!A19</f>
         <v>1979</v>
@@ -3859,7 +3986,7 @@
       </c>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f>'Payment data'!A20</f>
         <v>1980</v>
@@ -3927,7 +4054,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>'Payment data'!A21</f>
         <v>1981</v>
@@ -3989,7 +4116,7 @@
         <v>1.0028282712895766</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f>'Payment data'!A22</f>
         <v>1982</v>
@@ -4048,7 +4175,7 @@
       </c>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>'Payment data'!A23</f>
         <v>1983</v>
@@ -4102,7 +4229,7 @@
         <v>1.0098377951712163</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>'Payment data'!A24</f>
         <v>1984</v>
@@ -4152,7 +4279,7 @@
         <v>1.0186317180257645</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>'Payment data'!A25</f>
         <v>1985</v>
@@ -4199,7 +4326,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>'Payment data'!A26</f>
         <v>1986</v>
@@ -4243,7 +4370,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f>'Payment data'!A27</f>
         <v>1987</v>
@@ -4284,7 +4411,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f>'Payment data'!A28</f>
         <v>1988</v>
@@ -4322,7 +4449,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f>'Payment data'!A29</f>
         <v>1989</v>
@@ -4357,7 +4484,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f>'Payment data'!A30</f>
         <v>1990</v>
@@ -4389,7 +4516,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f>'Payment data'!A31</f>
         <v>1991</v>
@@ -4418,7 +4545,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f>'Payment data'!A32</f>
         <v>1992</v>
@@ -4444,7 +4571,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f>'Payment data'!A33</f>
         <v>1993</v>
@@ -4467,7 +4594,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f>'Payment data'!A34</f>
         <v>1994</v>
@@ -4487,7 +4614,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
@@ -4501,12 +4628,12 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4645,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="30" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4591,7 +4718,7 @@
         <v>1.0005239615167589</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="s">
         <v>148</v>
       </c>
@@ -4664,85 +4791,85 @@
         <v>1.0005239615167589</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="101" t="s">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="100">
+      <c r="B32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!B6,2+'Table 3.1'!B6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!B6,1+'Table 3.1'!B6))</f>
         <v>3.2322540211671456</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!C6,2+'Table 3.1'!C6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!C6,1+'Table 3.1'!C6))</f>
         <v>1.8920029824277111</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!D6,2+'Table 3.1'!D6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!D6,1+'Table 3.1'!D6))</f>
         <v>1.6279987975560175</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!E6,2+'Table 3.1'!E6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!E6,1+'Table 3.1'!E6))</f>
         <v>1.3585668513350178</v>
       </c>
-      <c r="F32" s="100">
+      <c r="F32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!F6,2+'Table 3.1'!F6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!F6,1+'Table 3.1'!F6))</f>
         <v>1.2293717539007742</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!G6,2+'Table 3.1'!G6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!G6,1+'Table 3.1'!G6))</f>
         <v>1.1631564647198622</v>
       </c>
-      <c r="H32" s="100">
+      <c r="H32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!H6,2+'Table 3.1'!H6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!H6,1+'Table 3.1'!H6))</f>
         <v>1.0916412445296877</v>
       </c>
-      <c r="I32" s="100">
+      <c r="I32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!I6,2+'Table 3.1'!I6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!I6,1+'Table 3.1'!I6))</f>
         <v>1.0628251420130312</v>
       </c>
-      <c r="J32" s="100">
+      <c r="J32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!J6,2+'Table 3.1'!J6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!J6,1+'Table 3.1'!J6))</f>
         <v>1.036874607237013</v>
       </c>
-      <c r="K32" s="100">
+      <c r="K32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!K6,2+'Table 3.1'!K6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!K6,1+'Table 3.1'!K6))</f>
         <v>1.0280340630570248</v>
       </c>
-      <c r="L32" s="100">
+      <c r="L32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!L6,2+'Table 3.1'!L6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!L6,1+'Table 3.1'!L6))</f>
         <v>1.0140323713292119</v>
       </c>
-      <c r="M32" s="100">
+      <c r="M32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!M6,2+'Table 3.1'!M6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!M6,1+'Table 3.1'!M6))</f>
         <v>1.0087010399089955</v>
       </c>
-      <c r="N32" s="100">
+      <c r="N32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!N6,2+'Table 3.1'!N6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!N6,1+'Table 3.1'!N6))</f>
         <v>1.0076785689514443</v>
       </c>
-      <c r="O32" s="100">
+      <c r="O32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!O6,2+'Table 3.1'!O6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!O6,1+'Table 3.1'!O6))</f>
         <v>1.0086250186482175</v>
       </c>
-      <c r="P32" s="100">
+      <c r="P32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!P6,2+'Table 3.1'!P6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!P6,1+'Table 3.1'!P6))</f>
         <v>1.0014748175965413</v>
       </c>
-      <c r="Q32" s="100">
+      <c r="Q32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!Q6,2+'Table 3.1'!Q6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!Q6,1+'Table 3.1'!Q6))</f>
         <v>1.0015710325176421</v>
       </c>
-      <c r="R32" s="100">
+      <c r="R32" s="96">
         <f ca="1">SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!R6,2+'Table 3.1'!R6))/SUM(OFFSET('Payment data'!$C$18:$T$35,0,0,17-'Table 3.1'!R6,1+'Table 3.1'!R6))</f>
         <v>1.0005239615167589</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -4800,7 +4927,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -4858,55 +4985,55 @@
       <c r="Q35" s="90"/>
       <c r="R35" s="90"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="101" t="s">
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="102">
+      <c r="B36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!B6,,,2+'Table 3.1'!B6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!B6,,,1+'Table 3.1'!B6))</f>
         <v>2.871288520254248</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!C6,,,2+'Table 3.1'!C6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!C6,,,1+'Table 3.1'!C6))</f>
         <v>1.89760568127469</v>
       </c>
-      <c r="D36" s="102">
+      <c r="D36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!D6,,,2+'Table 3.1'!D6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!D6,,,1+'Table 3.1'!D6))</f>
         <v>1.7507025391016904</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!E6,,,2+'Table 3.1'!E6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!E6,,,1+'Table 3.1'!E6))</f>
         <v>1.4779973471653234</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!F6,,,2+'Table 3.1'!F6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!F6,,,1+'Table 3.1'!F6))</f>
         <v>1.32119515090915</v>
       </c>
-      <c r="G36" s="102">
+      <c r="G36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!G6,,,2+'Table 3.1'!G6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!G6,,,1+'Table 3.1'!G6))</f>
         <v>1.2260636318057656</v>
       </c>
-      <c r="H36" s="102">
+      <c r="H36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!H6,,,2+'Table 3.1'!H6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!H6,,,1+'Table 3.1'!H6))</f>
         <v>1.1090435632074485</v>
       </c>
-      <c r="I36" s="102">
+      <c r="I36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!I6,,,2+'Table 3.1'!I6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!I6,,,1+'Table 3.1'!I6))</f>
         <v>1.0707179816384009</v>
       </c>
-      <c r="J36" s="102">
+      <c r="J36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!J6,,,2+'Table 3.1'!J6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!J6,,,1+'Table 3.1'!J6))</f>
         <v>1.0449355330081185</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!K6,,,2+'Table 3.1'!K6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!K6,,,1+'Table 3.1'!K6))</f>
         <v>1.0326487178829482</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!L6,,,2+'Table 3.1'!L6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!L6,,,1+'Table 3.1'!L6))</f>
         <v>1.0131203731434737</v>
       </c>
-      <c r="M36" s="102">
+      <c r="M36" s="98">
         <f ca="1">SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!M6,,,2+'Table 3.1'!M6))/SUM(OFFSET('Payment data'!$C$29:$T$34,-'Table 3.1'!M6,,,1+'Table 3.1'!M6))</f>
         <v>1.0087010399089955</v>
       </c>
@@ -4916,7 +5043,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -4983,7 +5110,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="91">
         <f>PRODUCT(B38:$R38)</f>
@@ -5048,72 +5175,72 @@
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="101" t="s">
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="103">
+      <c r="B40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!B6,,,2+'Table 3.1'!B6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!B6,,,1+'Table 3.1'!B6))</f>
         <v>2.9846169517804682</v>
       </c>
-      <c r="C40" s="103">
+      <c r="C40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!C6,,,2+'Table 3.1'!C6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!C6,,,1+'Table 3.1'!C6))</f>
         <v>2.0451729958492035</v>
       </c>
-      <c r="D40" s="103">
+      <c r="D40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!D6,,,2+'Table 3.1'!D6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!D6,,,1+'Table 3.1'!D6))</f>
         <v>1.8041726864875596</v>
       </c>
-      <c r="E40" s="103">
+      <c r="E40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!E6,,,2+'Table 3.1'!E6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!E6,,,1+'Table 3.1'!E6))</f>
         <v>1.5647316614807134</v>
       </c>
-      <c r="F40" s="103">
+      <c r="F40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!F6,,,2+'Table 3.1'!F6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!F6,,,1+'Table 3.1'!F6))</f>
         <v>1.3418718364273061</v>
       </c>
-      <c r="G40" s="103">
+      <c r="G40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!G6,,,2+'Table 3.1'!G6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!G6,,,1+'Table 3.1'!G6))</f>
         <v>1.202979206313205</v>
       </c>
-      <c r="H40" s="103">
+      <c r="H40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!H6,,,2+'Table 3.1'!H6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!H6,,,1+'Table 3.1'!H6))</f>
         <v>1.1236844509090778</v>
       </c>
-      <c r="I40" s="103">
+      <c r="I40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!I6,,,2+'Table 3.1'!I6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!I6,,,1+'Table 3.1'!I6))</f>
         <v>1.071966084834258</v>
       </c>
-      <c r="J40" s="103">
+      <c r="J40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!J6,,,2+'Table 3.1'!J6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!J6,,,1+'Table 3.1'!J6))</f>
         <v>1.0438835800388364</v>
       </c>
-      <c r="K40" s="103">
+      <c r="K40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!K6,,,2+'Table 3.1'!K6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!K6,,,1+'Table 3.1'!K6))</f>
         <v>1.0273154010370749</v>
       </c>
-      <c r="L40" s="103">
+      <c r="L40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!L6,,,2+'Table 3.1'!L6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!L6,,,1+'Table 3.1'!L6))</f>
         <v>1.0148358920488545</v>
       </c>
-      <c r="M40" s="103">
+      <c r="M40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!M6,,,2+'Table 3.1'!M6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!M6,,,1+'Table 3.1'!M6))</f>
         <v>1.0069506352992024</v>
       </c>
-      <c r="N40" s="103">
+      <c r="N40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!N6,,,2+'Table 3.1'!N6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!N6,,,1+'Table 3.1'!N6))</f>
         <v>1.0074272425096744</v>
       </c>
-      <c r="O40" s="103">
+      <c r="O40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!O6,,,2+'Table 3.1'!O6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!O6,,,1+'Table 3.1'!O6))</f>
         <v>1.0051385029949182</v>
       </c>
-      <c r="P40" s="103">
+      <c r="P40" s="99">
         <f ca="1">SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!P6,,,2+'Table 3.1'!P6))/SUM(OFFSET('Payment data'!$C$32:$T$34,-'Table 3.1'!P6,,,1+'Table 3.1'!P6))</f>
         <v>1.0014748175965413</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -5135,36 +5262,36 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="10">
-        <f>B38</f>
+        <f t="shared" ref="B42:H42" si="1">B38</f>
         <v>2.9846169517804682</v>
       </c>
       <c r="C42" s="10">
-        <f>C38</f>
+        <f t="shared" si="1"/>
         <v>2.0451729958492035</v>
       </c>
       <c r="D42" s="10">
-        <f>D38</f>
+        <f t="shared" si="1"/>
         <v>1.8041726864875596</v>
       </c>
       <c r="E42" s="10">
-        <f>E38</f>
+        <f t="shared" si="1"/>
         <v>1.5647316614807134</v>
       </c>
       <c r="F42" s="10">
-        <f>F38</f>
+        <f t="shared" si="1"/>
         <v>1.3418718364273061</v>
       </c>
       <c r="G42" s="10">
-        <f>G38</f>
+        <f t="shared" si="1"/>
         <v>1.202979206313205</v>
       </c>
       <c r="H42" s="10">
-        <f>H38</f>
+        <f t="shared" si="1"/>
         <v>1.1236844509090778</v>
       </c>
       <c r="I42" s="9">
@@ -5180,55 +5307,55 @@
         <v>1.0326487178829482</v>
       </c>
       <c r="L42" s="8">
-        <f>L30</f>
+        <f t="shared" ref="L42:R42" si="2">L30</f>
         <v>1.0140323713292119</v>
       </c>
       <c r="M42" s="8">
-        <f>M30</f>
+        <f t="shared" si="2"/>
         <v>1.0087010399089955</v>
       </c>
       <c r="N42" s="8">
-        <f>N30</f>
+        <f t="shared" si="2"/>
         <v>1.0076785689514443</v>
       </c>
       <c r="O42" s="8">
-        <f>O30</f>
+        <f t="shared" si="2"/>
         <v>1.0086250186482175</v>
       </c>
       <c r="P42" s="8">
-        <f>P30</f>
+        <f t="shared" si="2"/>
         <v>1.0014748175965413</v>
       </c>
       <c r="Q42" s="8">
-        <f>Q30</f>
+        <f t="shared" si="2"/>
         <v>1.0015710325176421</v>
       </c>
       <c r="R42" s="8">
-        <f>R30</f>
+        <f t="shared" si="2"/>
         <v>1.0005239615167589</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-    </row>
-    <row r="44" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -5249,47 +5376,45 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="10">
-        <f t="shared" ref="B45:J45" si="1">B42</f>
+        <f t="shared" ref="B45:J45" si="3">B42</f>
         <v>2.9846169517804682</v>
       </c>
       <c r="C45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0451729958492035</v>
       </c>
       <c r="D45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8041726864875596</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5647316614807134</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3418718364273061</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.202979206313205</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1236844509090778</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0707179816384009</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0449355330081185</v>
       </c>
       <c r="K45" s="11">
@@ -5297,31 +5422,31 @@
         <v>1.030041404938244</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" ref="L45:R45" si="2">L52</f>
+        <f t="shared" ref="L45:R45" si="4">L52</f>
         <v>1.0177939983984112</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0105396661592077</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0062428106522403</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0036977153024602</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0021902151482267</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0012972990084799</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0007684106827428</v>
       </c>
       <c r="S45" s="34">
@@ -5329,7 +5454,7 @@
         <v>1.0011164076585175</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="s">
         <v>148</v>
       </c>
@@ -5406,7 +5531,7 @@
         <v>1.0011164076585175</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -5428,7 +5553,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5439,43 +5564,43 @@
         <v>19</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ref="J48:R48" si="3">J42-1</f>
+        <f t="shared" ref="J48:R48" si="5">J42-1</f>
         <v>4.4935533008118478E-2</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2648717882948208E-2</v>
       </c>
       <c r="L48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4032371329211868E-2</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.7010399089955115E-3</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.6785689514442534E-3</v>
       </c>
       <c r="O48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6250186482175195E-3</v>
       </c>
       <c r="P48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4748175965413335E-3</v>
       </c>
       <c r="Q48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5710325176421236E-3</v>
       </c>
       <c r="R48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2396151675893066E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -5491,43 +5616,43 @@
         <v>20</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:R49" si="4">LN(J48)</f>
+        <f t="shared" ref="J49:R49" si="6">LN(J48)</f>
         <v>-3.1025264161836441</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.42194969254686</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.266388380674238</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.7443127306951141</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.8693220836323388</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.7530881539548746</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.5192209601991058</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.4560222212327831</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.5540923176399266</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -5543,43 +5668,43 @@
         <v>21</v>
       </c>
       <c r="J50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(J6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" ref="J50:R50" si="7">_xlfn.FORECAST.LINEAR(J6,$J49:$R49,$J6:$R6)</f>
         <v>-2.9814633213603834</v>
       </c>
       <c r="K50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(K6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-3.5051786842635897</v>
       </c>
       <c r="L50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(L6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-4.0288940471667969</v>
       </c>
       <c r="M50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(M6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-4.5526094100700032</v>
       </c>
       <c r="N50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(N6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-5.0763247729732095</v>
       </c>
       <c r="O50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(O6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-5.6000401358764167</v>
       </c>
       <c r="P50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(P6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-6.123755498779623</v>
       </c>
       <c r="Q50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(Q6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-6.6474708616828302</v>
       </c>
       <c r="R50" s="1">
-        <f>_xlfn.FORECAST.LINEAR(R6,$J49:$R49,$J6:$R6)</f>
+        <f t="shared" si="7"/>
         <v>-7.1711862245860365</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="I51" s="17" t="s">
         <v>22</v>
       </c>
@@ -5588,39 +5713,39 @@
         <v>5.0718561981219781E-2</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" ref="K51:R51" si="5">EXP(K50)</f>
+        <f t="shared" ref="K51:R51" si="8">EXP(K50)</f>
         <v>3.0041404938244001E-2</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7793998398411323E-2</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.053966615920769E-2</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2428106522402277E-3</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6977153024601835E-3</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1902151482268068E-3</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2972990084797972E-3</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.6841068274283771E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="I52" s="15" t="s">
         <v>23</v>
       </c>
@@ -5629,42 +5754,42 @@
         <v>1.0507185619812198</v>
       </c>
       <c r="K52" s="18">
-        <f t="shared" ref="K52:R52" si="6">1+K51</f>
+        <f t="shared" ref="K52:R52" si="9">1+K51</f>
         <v>1.030041404938244</v>
       </c>
       <c r="L52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0177939983984112</v>
       </c>
       <c r="M52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0105396661592077</v>
       </c>
       <c r="N52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0062428106522403</v>
       </c>
       <c r="O52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0036977153024602</v>
       </c>
       <c r="P52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0021902151482267</v>
       </c>
       <c r="Q52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0012972990084799</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0007684106827428</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="I53" s="16"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="93" t="s">
         <v>149</v>
       </c>
@@ -5677,71 +5802,71 @@
         <v>5.2754184974106652E-2</v>
       </c>
       <c r="D55" s="94">
-        <f t="shared" ref="D55:S55" si="7">1/D46-1/C46</f>
+        <f t="shared" ref="D55:S55" si="10">1/D46-1/C46</f>
         <v>8.2919562660547105E-2</v>
       </c>
       <c r="E55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1304812746407171</v>
       </c>
       <c r="F55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16531760805984691</v>
       </c>
       <c r="G55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.15659582213305445</v>
       </c>
       <c r="H55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.12476116866315223</v>
       </c>
       <c r="I55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.1453664089139131E-2</v>
       </c>
       <c r="J55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.8757083813325228E-2</v>
       </c>
       <c r="K55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.9975634886496025E-2</v>
       </c>
       <c r="L55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.79264163991777E-2</v>
       </c>
       <c r="M55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7038179906794237E-2</v>
       </c>
       <c r="N55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0271559662950458E-2</v>
       </c>
       <c r="O55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.1481303440801272E-3</v>
       </c>
       <c r="P55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6643686969054512E-3</v>
       </c>
       <c r="Q55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1784891831536646E-3</v>
       </c>
       <c r="R55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2931796861106459E-3</v>
       </c>
       <c r="S55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.6696443615864585E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="95">
         <f>B31/B46</f>
         <v>0.6633684514655831</v>
@@ -5937,11 +6062,11 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="20" width="10" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.875" style="1"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5989,7 +6114,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6144,7 +6269,7 @@
       </c>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -6203,7 +6328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -8345,7 +8470,7 @@
         <v>39328.810427470817</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="2"/>
         <v>1982</v>
@@ -8439,7 +8564,7 @@
         <v>39787.395283037164</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="2"/>
         <v>1983</v>
@@ -8533,7 +8658,7 @@
         <v>36914.048347951182</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="2"/>
         <v>1984</v>
@@ -8627,7 +8752,7 @@
         <v>49828.211811611895</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="2"/>
         <v>1985</v>
@@ -8721,7 +8846,7 @@
         <v>41731.833817073348</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="2"/>
         <v>1986</v>
@@ -8815,7 +8940,7 @@
         <v>44378.920796721512</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="2"/>
         <v>1987</v>
@@ -8909,7 +9034,7 @@
         <v>45194.04632692747</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -9003,7 +9128,7 @@
         <v>40155.86745662742</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="2"/>
         <v>1989</v>
@@ -9097,7 +9222,7 @@
         <v>50471.511258232582</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="2"/>
         <v>1990</v>
@@ -9191,7 +9316,7 @@
         <v>58154.483270913493</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -9285,7 +9410,7 @@
         <v>64290.73149083629</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -9379,7 +9504,7 @@
         <v>96555.859950017475</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -9473,7 +9598,7 @@
         <v>93466.331643740399</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <f t="shared" ref="A56:B57" si="8">A25</f>
         <v>1994</v>
@@ -9567,7 +9692,7 @@
         <v>100363.9343127789</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <f t="shared" si="8"/>
         <v>1995</v>
@@ -9686,7 +9811,7 @@
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>40</v>
       </c>
@@ -9716,7 +9841,7 @@
       </c>
       <c r="W59" s="38"/>
     </row>
-    <row r="60" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9730,9 +9855,9 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -9886,7 +10011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
@@ -9942,7 +10067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f>'Payment data'!A18</f>
         <v>1978</v>
@@ -10023,7 +10148,7 @@
         <v>13.837842883799999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f>'Payment data'!A19</f>
         <v>1979</v>
@@ -10101,7 +10226,7 @@
       </c>
       <c r="T9" s="35"/>
     </row>
-    <row r="10" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f>'Payment data'!A20</f>
         <v>1980</v>
@@ -10176,7 +10301,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
     </row>
-    <row r="11" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>'Payment data'!A21</f>
         <v>1981</v>
@@ -10248,7 +10373,7 @@
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
     </row>
-    <row r="12" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f>'Payment data'!A22</f>
         <v>1982</v>
@@ -10317,7 +10442,7 @@
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
     </row>
-    <row r="13" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>'Payment data'!A23</f>
         <v>1983</v>
@@ -10383,7 +10508,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
     </row>
-    <row r="14" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>'Payment data'!A24</f>
         <v>1984</v>
@@ -10446,7 +10571,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
     </row>
-    <row r="15" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>'Payment data'!A25</f>
         <v>1985</v>
@@ -10506,7 +10631,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
     </row>
-    <row r="16" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>'Payment data'!A26</f>
         <v>1986</v>
@@ -10563,7 +10688,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
     </row>
-    <row r="17" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f>'Payment data'!A27</f>
         <v>1987</v>
@@ -10617,7 +10742,7 @@
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
     </row>
-    <row r="18" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f>'Payment data'!A28</f>
         <v>1988</v>
@@ -10668,7 +10793,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
     </row>
-    <row r="19" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f>'Payment data'!A29</f>
         <v>1989</v>
@@ -10716,7 +10841,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
     </row>
-    <row r="20" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f>'Payment data'!A30</f>
         <v>1990</v>
@@ -10761,7 +10886,7 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
     </row>
-    <row r="21" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f>'Payment data'!A31</f>
         <v>1991</v>
@@ -10803,7 +10928,7 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
     </row>
-    <row r="22" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f>'Payment data'!A32</f>
         <v>1992</v>
@@ -10842,7 +10967,7 @@
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
     </row>
-    <row r="23" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f>'Payment data'!A33</f>
         <v>1993</v>
@@ -10878,7 +11003,7 @@
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
     </row>
-    <row r="24" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f>'Payment data'!A34</f>
         <v>1994</v>
@@ -10911,7 +11036,7 @@
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
     </row>
-    <row r="25" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f>'Payment data'!A35</f>
         <v>1995</v>
@@ -10983,7 +11108,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="31" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -11007,7 +11132,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>1</v>
       </c>
@@ -11031,7 +11156,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>0</v>
       </c>
@@ -11100,7 +11225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f>A8</f>
         <v>1978</v>
@@ -11174,7 +11299,7 @@
         <v>1.0002512903660672</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" ref="A36:A51" si="2">A9</f>
         <v>1979</v>
@@ -11245,7 +11370,7 @@
       </c>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="2"/>
         <v>1980</v>
@@ -11313,7 +11438,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="2"/>
         <v>1981</v>
@@ -11375,7 +11500,7 @@
         <v>1.0017427808633765</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="2"/>
         <v>1982</v>
@@ -11434,7 +11559,7 @@
       </c>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="2"/>
         <v>1983</v>
@@ -11488,7 +11613,7 @@
         <v>1.0068917019861967</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="2"/>
         <v>1984</v>
@@ -11538,7 +11663,7 @@
         <v>1.0141396323326677</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="2"/>
         <v>1985</v>
@@ -11585,7 +11710,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="2"/>
         <v>1986</v>
@@ -11629,7 +11754,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="2"/>
         <v>1987</v>
@@ -11670,7 +11795,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -11708,7 +11833,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="2"/>
         <v>1989</v>
@@ -11743,7 +11868,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="2"/>
         <v>1990</v>
@@ -11775,7 +11900,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -11804,7 +11929,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -11830,7 +11955,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -11853,7 +11978,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="2"/>
         <v>1994</v>
@@ -11873,20 +11998,20 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -11959,85 +12084,85 @@
         <v>1.0002512903660672</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="101" t="s">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="100">
+      <c r="B58" s="96">
         <f ca="1">SUM(OFFSET($C$8:$T$25,0,0,17-C5,2+C5))/SUM(OFFSET($C$8:$T$25,0,0,17-C5,1+C5))</f>
         <v>3.1587528549125738</v>
       </c>
-      <c r="C58" s="100">
+      <c r="C58" s="96">
         <f t="shared" ref="C58:R58" ca="1" si="3">SUM(OFFSET($C$8:$T$25,0,0,17-D5,2+D5))/SUM(OFFSET($C$8:$T$25,0,0,17-D5,1+D5))</f>
         <v>1.8007344535698</v>
       </c>
-      <c r="D58" s="100">
+      <c r="D58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.5372748990517007</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.2935771209850964</v>
       </c>
-      <c r="F58" s="100">
+      <c r="F58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.1826056395589364</v>
       </c>
-      <c r="G58" s="100">
+      <c r="G58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.1273296328409796</v>
       </c>
-      <c r="H58" s="100">
+      <c r="H58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0714142902970922</v>
       </c>
-      <c r="I58" s="100">
+      <c r="I58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0470680609255731</v>
       </c>
-      <c r="J58" s="100">
+      <c r="J58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0262432681501457</v>
       </c>
-      <c r="K58" s="100">
+      <c r="K58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0193328502477959</v>
       </c>
-      <c r="L58" s="100">
+      <c r="L58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0094053237486904</v>
       </c>
-      <c r="M58" s="100">
+      <c r="M58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0055075753790024</v>
       </c>
-      <c r="N58" s="100">
+      <c r="N58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.004616517705732</v>
       </c>
-      <c r="O58" s="100">
+      <c r="O58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0049808751727896</v>
       </c>
-      <c r="P58" s="100">
+      <c r="P58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0008017949552295</v>
       </c>
-      <c r="Q58" s="100">
+      <c r="Q58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0007800661576594</v>
       </c>
-      <c r="R58" s="100">
+      <c r="R58" s="96">
         <f t="shared" ca="1" si="3"/>
         <v>1.0002512903660672</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -12095,60 +12220,60 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="102">
+      <c r="B61" s="98">
         <f ca="1">SUM(OFFSET($C$19:$T$24,-C5,0,,2+C5))/SUM(OFFSET($C$19:$T$24,-C5,0,,1+C5))</f>
         <v>2.7940449842716371</v>
       </c>
-      <c r="C61" s="102">
+      <c r="C61" s="98">
         <f t="shared" ref="C61:M61" ca="1" si="4">SUM(OFFSET($C$19:$T$24,-D5,0,,2+D5))/SUM(OFFSET($C$19:$T$24,-D5,0,,1+D5))</f>
         <v>1.8437752723299436</v>
       </c>
-      <c r="D61" s="102">
+      <c r="D61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.6954542428797317</v>
       </c>
-      <c r="E61" s="102">
+      <c r="E61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.4361651119520062</v>
       </c>
-      <c r="F61" s="102">
+      <c r="F61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.2876000023729925</v>
       </c>
-      <c r="G61" s="102">
+      <c r="G61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.1999654728198053</v>
       </c>
-      <c r="H61" s="102">
+      <c r="H61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0918681470128777</v>
       </c>
-      <c r="I61" s="102">
+      <c r="I61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0568254681223315</v>
       </c>
-      <c r="J61" s="102">
+      <c r="J61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0347271364997244</v>
       </c>
-      <c r="K61" s="102">
+      <c r="K61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0239403592544574</v>
       </c>
-      <c r="L61" s="102">
+      <c r="L61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0088462796644413</v>
       </c>
-      <c r="M61" s="102">
+      <c r="M61" s="98">
         <f t="shared" ca="1" si="4"/>
         <v>1.0055075753790024</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -12168,7 +12293,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
@@ -12235,72 +12360,72 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="103">
+      <c r="B64" s="99">
         <f ca="1">SUM(OFFSET($C$22:$T$24,-C5,0,,2+C5))/SUM(OFFSET($C$22:$T$24,-C5,0,,1+C5))</f>
         <v>2.920055600367232</v>
       </c>
-      <c r="C64" s="103">
+      <c r="C64" s="99">
         <f t="shared" ref="C64:P64" ca="1" si="5">SUM(OFFSET($C$22:$T$24,-D5,0,,2+D5))/SUM(OFFSET($C$22:$T$24,-D5,0,,1+D5))</f>
         <v>2.0035759059352438</v>
       </c>
-      <c r="D64" s="103">
+      <c r="D64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.7560292617903346</v>
       </c>
-      <c r="E64" s="103">
+      <c r="E64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.5294885147968418</v>
       </c>
-      <c r="F64" s="103">
+      <c r="F64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.313902281401405</v>
       </c>
-      <c r="G64" s="103">
+      <c r="G64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.1837951874006016</v>
       </c>
-      <c r="H64" s="103">
+      <c r="H64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.1089290558671234</v>
       </c>
-      <c r="I64" s="103">
+      <c r="I64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0605370486603738</v>
       </c>
-      <c r="J64" s="103">
+      <c r="J64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0358048717326698</v>
       </c>
-      <c r="K64" s="103">
+      <c r="K64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0211032970101981</v>
       </c>
-      <c r="L64" s="103">
+      <c r="L64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0106867153759609</v>
       </c>
-      <c r="M64" s="103">
+      <c r="M64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0046291410437036</v>
       </c>
-      <c r="N64" s="103">
+      <c r="N64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.004742799095552</v>
       </c>
-      <c r="O64" s="103">
+      <c r="O64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0029681506840582</v>
       </c>
-      <c r="P64" s="103">
+      <c r="P64" s="99">
         <f t="shared" ca="1" si="5"/>
         <v>1.0008017949552295</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -12322,7 +12447,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -12395,7 +12520,7 @@
         <v>1.0002512903660672</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -12415,7 +12540,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -12437,7 +12562,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -12514,8 +12639,8 @@
         <v>1.0004616440713561</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="13" customFormat="1" ht="15.95" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>56</v>
       </c>
@@ -12562,7 +12687,7 @@
         <v>2.5129036606719168E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -12614,7 +12739,7 @@
         <v>-8.2889014505316325</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -12666,7 +12791,7 @@
         <v>-7.9134791448835164</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I75" s="17" t="s">
         <v>22</v>
       </c>
@@ -12707,7 +12832,7 @@
         <v>3.6577976345173358E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I76" s="15" t="s">
         <v>23</v>
       </c>
@@ -12748,10 +12873,10 @@
         <v>1.0003657797634518</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I77" s="16"/>
     </row>
-    <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>49</v>
       </c>
@@ -12773,7 +12898,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>50</v>
       </c>
@@ -12795,7 +12920,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:20" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -12816,7 +12941,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>0</v>
       </c>
@@ -12841,7 +12966,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>1</v>
       </c>
@@ -12867,7 +12992,7 @@
       <c r="S85" s="24"/>
       <c r="T85" s="24"/>
     </row>
-    <row r="86" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24"/>
       <c r="B86" s="24">
         <v>0</v>
@@ -12944,7 +13069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="20" t="s">
         <v>29</v>
       </c>
@@ -13003,7 +13128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>A8</f>
         <v>1978</v>
@@ -13085,7 +13210,7 @@
         <v>55106.410088615594</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f t="shared" ref="A90:A106" si="16">A9</f>
         <v>1979</v>
@@ -13167,7 +13292,7 @@
         <v>42074.033776763346</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f t="shared" si="16"/>
         <v>1980</v>
@@ -13249,7 +13374,7 @@
         <v>58697.304404802017</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f t="shared" si="16"/>
         <v>1981</v>
@@ -13331,7 +13456,7 @@
         <v>65965.822588208146</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f t="shared" si="16"/>
         <v>1982</v>
@@ -13413,7 +13538,7 @@
         <v>62167.09674591558</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f t="shared" si="16"/>
         <v>1983</v>
@@ -13495,7 +13620,7 @@
         <v>54142.542825439392</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f t="shared" si="16"/>
         <v>1984</v>
@@ -13577,7 +13702,7 @@
         <v>67110.474659233892</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f t="shared" si="16"/>
         <v>1985</v>
@@ -13659,7 +13784,7 @@
         <v>53105.471740753841</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f t="shared" si="16"/>
         <v>1986</v>
@@ -13741,7 +13866,7 @@
         <v>53843.046432822841</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f t="shared" si="16"/>
         <v>1987</v>
@@ -13823,7 +13948,7 @@
         <v>51518.150786515464</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f t="shared" si="16"/>
         <v>1988</v>
@@ -13905,7 +14030,7 @@
         <v>44411.154717315134</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f t="shared" si="16"/>
         <v>1989</v>
@@ -13987,7 +14112,7 @@
         <v>53351.63444915344</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f t="shared" si="16"/>
         <v>1990</v>
@@ -14069,7 +14194,7 @@
         <v>58987.692407918948</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f t="shared" si="16"/>
         <v>1991</v>
@@ -14151,7 +14276,7 @@
         <v>63374.693504916017</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f t="shared" si="16"/>
         <v>1992</v>
@@ -14233,7 +14358,7 @@
         <v>91247.0322312848</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f t="shared" si="16"/>
         <v>1993</v>
@@ -14315,7 +14440,7 @@
         <v>85588.939987175749</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f t="shared" si="16"/>
         <v>1994</v>
@@ -14397,7 +14522,7 @@
         <v>88774.495575883397</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f t="shared" si="16"/>
         <v>1995</v>
@@ -14479,7 +14604,7 @@
         <v>87994.168248919595</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
         <v>52</v>
       </c>
@@ -14502,7 +14627,7 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
         <v>53</v>
       </c>
@@ -14525,7 +14650,7 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="1:23" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -14547,7 +14672,7 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="1:23" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>0</v>
       </c>
@@ -14578,7 +14703,7 @@
       <c r="V115" s="24"/>
       <c r="W115" s="24"/>
     </row>
-    <row r="116" spans="1:23" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>1</v>
       </c>
@@ -14613,7 +14738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24"/>
       <c r="B117" s="24">
         <v>0</v>
@@ -14697,7 +14822,7 @@
       </c>
       <c r="W117" s="24"/>
     </row>
-    <row r="118" spans="1:23" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="20" t="s">
         <v>29</v>
       </c>
@@ -14765,7 +14890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <f>A89</f>
         <v>1978</v>
@@ -14859,7 +14984,7 @@
         <v>55106.410088615594</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <f t="shared" ref="A121:B137" si="51">A90</f>
         <v>1979</v>
@@ -14953,7 +15078,7 @@
         <v>42074.033776763346</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <f t="shared" si="51"/>
         <v>1980</v>
@@ -15047,7 +15172,7 @@
         <v>58697.304404802017</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <f t="shared" si="51"/>
         <v>1981</v>
@@ -15141,7 +15266,7 @@
         <v>65965.822588208146</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <f t="shared" si="51"/>
         <v>1982</v>
@@ -15235,7 +15360,7 @@
         <v>62167.09674591558</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <f t="shared" si="51"/>
         <v>1983</v>
@@ -15329,7 +15454,7 @@
         <v>54142.542825439392</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <f t="shared" si="51"/>
         <v>1984</v>
@@ -15423,7 +15548,7 @@
         <v>67110.474659233892</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <f t="shared" si="51"/>
         <v>1985</v>
@@ -15517,7 +15642,7 @@
         <v>53105.471740753841</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <f t="shared" si="51"/>
         <v>1986</v>
@@ -15611,7 +15736,7 @@
         <v>53843.046432822841</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <f t="shared" si="51"/>
         <v>1987</v>
@@ -15705,7 +15830,7 @@
         <v>51518.150786515464</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <f t="shared" si="51"/>
         <v>1988</v>
@@ -15799,7 +15924,7 @@
         <v>44411.154717315134</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <f t="shared" si="51"/>
         <v>1989</v>
@@ -15893,7 +16018,7 @@
         <v>53351.63444915344</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <f t="shared" si="51"/>
         <v>1990</v>
@@ -15987,7 +16112,7 @@
         <v>58987.692407918948</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <f t="shared" si="51"/>
         <v>1991</v>
@@ -16081,7 +16206,7 @@
         <v>63374.693504916017</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <f t="shared" si="51"/>
         <v>1992</v>
@@ -16175,7 +16300,7 @@
         <v>91247.0322312848</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <f t="shared" si="51"/>
         <v>1993</v>
@@ -16269,7 +16394,7 @@
         <v>85588.939987175749</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <f t="shared" si="51"/>
         <v>1994</v>
@@ -16363,7 +16488,7 @@
         <v>88774.495575883397</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <f t="shared" si="51"/>
         <v>1995</v>
@@ -16457,7 +16582,7 @@
         <v>87994.168248919595</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
@@ -16482,7 +16607,7 @@
       <c r="V138" s="42"/>
       <c r="W138" s="41"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
         <v>40</v>
       </c>
@@ -16512,7 +16637,7 @@
       </c>
       <c r="W139" s="38"/>
     </row>
-    <row r="144" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
         <v>86</v>
       </c>
@@ -16535,7 +16660,7 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
         <v>87</v>
       </c>
@@ -16562,7 +16687,7 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="1:23" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -16582,7 +16707,7 @@
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="1:23" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>0</v>
       </c>
@@ -16613,7 +16738,7 @@
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
     </row>
-    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
@@ -16648,7 +16773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5">
         <v>0</v>
@@ -16732,7 +16857,7 @@
       </c>
       <c r="W149" s="24"/>
     </row>
-    <row r="150" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>29</v>
       </c>
@@ -16800,11 +16925,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="V151" s="22"/>
       <c r="W151" s="22"/>
     </row>
-    <row r="152" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <f t="shared" ref="A152:A169" si="55">A120</f>
         <v>1978</v>
@@ -16898,7 +17023,7 @@
         <v>25487.675746805748</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <f t="shared" si="55"/>
         <v>1979</v>
@@ -16992,7 +17117,7 @@
         <v>19873.919036274467</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <f t="shared" si="55"/>
         <v>1980</v>
@@ -17086,7 +17211,7 @@
         <v>32085.635548743103</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <f t="shared" si="55"/>
         <v>1981</v>
@@ -17180,7 +17305,7 @@
         <v>39304.889539831194</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <f t="shared" si="55"/>
         <v>1982</v>
@@ -17274,7 +17399,7 @@
         <v>39743.441789431483</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <f t="shared" si="55"/>
         <v>1983</v>
@@ -17368,7 +17493,7 @@
         <v>36844.545870113725</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <f t="shared" si="55"/>
         <v>1984</v>
@@ -17462,7 +17587,7 @@
         <v>49645.518660416739</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <f t="shared" si="55"/>
         <v>1985</v>
@@ -17556,7 +17681,7 @@
         <v>41486.392963931648</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <f t="shared" si="55"/>
         <v>1986</v>
@@ -17650,7 +17775,7 @@
         <v>43993.056664241965</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <f t="shared" si="55"/>
         <v>1987</v>
@@ -17744,7 +17869,7 @@
         <v>44596.231238392596</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <f t="shared" si="55"/>
         <v>1988</v>
@@ -17838,7 +17963,7 @@
         <v>39522.354047159024</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <f t="shared" si="55"/>
         <v>1989</v>
@@ -17932,7 +18057,7 @@
         <v>49629.013739663809</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <f t="shared" si="55"/>
         <v>1990</v>
@@ -18026,7 +18151,7 @@
         <v>57165.671307443787</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <f t="shared" si="55"/>
         <v>1991</v>
@@ -18120,7 +18245,7 @@
         <v>63515.069031002015</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <f t="shared" si="55"/>
         <v>1992</v>
@@ -18214,7 +18339,7 @@
         <v>95314.312896215924</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <f t="shared" si="55"/>
         <v>1993</v>
@@ -18308,7 +18433,7 @@
         <v>92702.463872853448</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <f t="shared" si="55"/>
         <v>1994</v>
@@ -18402,7 +18527,7 @@
         <v>99789.163645949593</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <f t="shared" si="55"/>
         <v>1995</v>
@@ -18496,7 +18621,7 @@
         <v>102547.41139570162</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="35"/>
       <c r="C170" s="35"/>
@@ -18521,7 +18646,7 @@
       <c r="V170" s="36"/>
       <c r="W170" s="36"/>
     </row>
-    <row r="171" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="25" t="s">
         <v>40</v>
       </c>
@@ -18810,12 +18935,12 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.875" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -18878,7 +19003,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -18901,7 +19026,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -18921,7 +19046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -18938,7 +19063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>75</v>
       </c>
@@ -18950,12 +19075,12 @@
       <c r="G10" s="5"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -18982,7 +19107,7 @@
         <v>2827.4879511605</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" ref="A14:A30" si="0">A13+1</f>
         <v>1</v>
@@ -19011,7 +19136,7 @@
         <v>5428.9340755965895</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -19040,7 +19165,7 @@
         <v>8285.9462152864471</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19069,7 +19194,7 @@
         <v>12506.51445029605</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19098,7 +19223,7 @@
         <v>15381.049753274569</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19127,7 +19252,7 @@
         <v>13946.657157188587</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19156,7 +19281,7 @@
         <v>10729.336225855142</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19185,7 +19310,7 @@
         <v>7527.6432553391642</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19214,7 +19339,7 @@
         <v>4354.7384370831569</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19243,7 +19368,7 @@
         <v>2812.4920101661992</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19272,7 +19397,7 @@
         <v>1821.4329491482495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19301,7 +19426,7 @@
         <v>1038.3190190327005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19330,7 +19455,7 @@
         <v>586.33382085576886</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19359,7 +19484,7 @@
         <v>329.34620580817864</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19388,7 +19513,7 @@
         <v>184.44556688929151</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19417,7 +19542,7 @@
         <v>103.12433690276521</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19446,7 +19571,7 @@
         <v>57.60370642298949</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19475,12 +19600,12 @@
         <v>32.159870773102739</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>77</v>
       </c>
@@ -19502,7 +19627,7 @@
         <v>87953.565007079451</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
         <v>85</v>
       </c>
@@ -19515,7 +19640,7 @@
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
     </row>
-    <row r="35" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
         <v>150</v>
       </c>
@@ -19585,13 +19710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F9F421-4085-D148-B5A0-530C7EB0692A}">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -19638,7 +19763,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -19781,7 +19906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -19837,7 +19962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1978</v>
       </c>
@@ -19896,7 +20021,7 @@
         <v>25469</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1979</v>
       </c>
@@ -19952,7 +20077,7 @@
         <v>19991</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1980</v>
       </c>
@@ -20005,7 +20130,7 @@
         <v>32168</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1981</v>
       </c>
@@ -20055,7 +20180,7 @@
         <v>40096</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1982</v>
       </c>
@@ -20102,7 +20227,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1983</v>
       </c>
@@ -20146,7 +20271,7 @@
         <v>37075</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1984</v>
       </c>
@@ -20187,7 +20312,7 @@
         <v>51382</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1985</v>
       </c>
@@ -20225,7 +20350,7 @@
         <v>42378</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1986</v>
       </c>
@@ -20260,7 +20385,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1987</v>
       </c>
@@ -20292,7 +20417,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1988</v>
       </c>
@@ -20321,7 +20446,7 @@
         <v>40398</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1989</v>
       </c>
@@ -20347,7 +20472,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1990</v>
       </c>
@@ -20370,7 +20495,7 @@
         <v>49300</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1991</v>
       </c>
@@ -20390,7 +20515,7 @@
         <v>41132</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1992</v>
       </c>
@@ -20407,7 +20532,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1993</v>
       </c>
@@ -20421,7 +20546,7 @@
         <v>34230</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1994</v>
       </c>
@@ -20432,7 +20557,7 @@
         <v>23126</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1995</v>
       </c>
@@ -20482,7 +20607,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -20625,7 +20750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
@@ -20681,7 +20806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1978</v>
       </c>
@@ -20757,7 +20882,7 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1979</v>
       </c>
@@ -20829,7 +20954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1980</v>
       </c>
@@ -20897,7 +21022,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1981</v>
       </c>
@@ -20961,7 +21086,7 @@
         <v>-241</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1982</v>
       </c>
@@ -21021,7 +21146,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1983</v>
       </c>
@@ -21077,7 +21202,7 @@
         <v>-270</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1984</v>
       </c>
@@ -21129,7 +21254,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1985</v>
       </c>
@@ -21177,7 +21302,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1986</v>
       </c>
@@ -21221,7 +21346,7 @@
         <v>-964</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1987</v>
       </c>
@@ -21261,7 +21386,7 @@
         <v>-413</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1988</v>
       </c>
@@ -21297,7 +21422,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1989</v>
       </c>
@@ -21329,7 +21454,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1990</v>
       </c>
@@ -21357,7 +21482,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1991</v>
       </c>
@@ -21381,7 +21506,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1992</v>
       </c>
@@ -21401,7 +21526,7 @@
         <v>7088</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1993</v>
       </c>
@@ -21417,7 +21542,7 @@
         <v>7148</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1994</v>
       </c>
@@ -21429,7 +21554,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>1995</v>
       </c>
@@ -21479,7 +21604,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -21503,7 +21628,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>1</v>
       </c>
@@ -21527,7 +21652,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B62" s="5">
         <v>0</v>
       </c>
@@ -21596,7 +21721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <f>A37</f>
         <v>1978</v>
@@ -21670,7 +21795,7 @@
         <v>0.99309833892224908</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <f t="shared" ref="A65:A80" si="61">A38</f>
         <v>1979</v>
@@ -21741,7 +21866,7 @@
       </c>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <f t="shared" si="61"/>
         <v>1980</v>
@@ -21809,7 +21934,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <f t="shared" si="61"/>
         <v>1981</v>
@@ -21871,7 +21996,7 @@
         <v>0.99402533653965341</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <f t="shared" si="61"/>
         <v>1982</v>
@@ -21930,7 +22055,7 @@
       </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <f t="shared" si="61"/>
         <v>1983</v>
@@ -21984,7 +22109,7 @@
         <v>0.99277011648145663</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <f t="shared" si="61"/>
         <v>1984</v>
@@ -22034,7 +22159,7 @@
         <v>0.99846485688191056</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <f t="shared" si="61"/>
         <v>1985</v>
@@ -22081,7 +22206,7 @@
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <f t="shared" si="61"/>
         <v>1986</v>
@@ -22125,7 +22250,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <f t="shared" si="61"/>
         <v>1987</v>
@@ -22166,7 +22291,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <f t="shared" si="61"/>
         <v>1988</v>
@@ -22204,7 +22329,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <f t="shared" si="61"/>
         <v>1989</v>
@@ -22239,7 +22364,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <f t="shared" si="61"/>
         <v>1990</v>
@@ -22271,7 +22396,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <f t="shared" si="61"/>
         <v>1991</v>
@@ -22300,7 +22425,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <f t="shared" si="61"/>
         <v>1992</v>
@@ -22326,7 +22451,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <f t="shared" si="61"/>
         <v>1993</v>
@@ -22349,7 +22474,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <f t="shared" si="61"/>
         <v>1994</v>
@@ -22369,20 +22494,20 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
     </row>
-    <row r="83" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -22455,85 +22580,85 @@
         <v>0.99309833892224908</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="101" t="s">
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="100">
+      <c r="B87" s="96">
         <f ca="1">SUM(OFFSET($B$37:$S$54,,,17-B34,2+B34))/SUM(OFFSET($B$37:$S$54,,,17-B34,1+B34))</f>
         <v>1.9983237445841324</v>
       </c>
-      <c r="C87" s="100">
+      <c r="C87" s="96">
         <f t="shared" ref="C87:R87" ca="1" si="62">SUM(OFFSET($B$37:$S$54,,,17-C34,2+C34))/SUM(OFFSET($B$37:$S$54,,,17-C34,1+C34))</f>
         <v>1.2906114467647722</v>
       </c>
-      <c r="D87" s="100">
+      <c r="D87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.1277367858138674</v>
       </c>
-      <c r="E87" s="100">
+      <c r="E87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0678355878247421</v>
       </c>
-      <c r="F87" s="100">
+      <c r="F87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0467344018200424</v>
       </c>
-      <c r="G87" s="100">
+      <c r="G87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0184654959572392</v>
       </c>
-      <c r="H87" s="100">
+      <c r="H87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0004447222007664</v>
       </c>
-      <c r="I87" s="100">
+      <c r="I87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.98947354822039923</v>
       </c>
-      <c r="J87" s="100">
+      <c r="J87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99518235893197149</v>
       </c>
-      <c r="K87" s="100">
+      <c r="K87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99639270342283259</v>
       </c>
-      <c r="L87" s="100">
+      <c r="L87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99396725309459055</v>
       </c>
-      <c r="M87" s="100">
+      <c r="M87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99466958558191632</v>
       </c>
-      <c r="N87" s="100">
+      <c r="N87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99985470441824909</v>
       </c>
-      <c r="O87" s="100">
+      <c r="O87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99673936057590518</v>
       </c>
-      <c r="P87" s="100">
+      <c r="P87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0005283913704668</v>
       </c>
-      <c r="Q87" s="100">
+      <c r="Q87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>1.0037389755207073</v>
       </c>
-      <c r="R87" s="100">
+      <c r="R87" s="96">
         <f t="shared" ca="1" si="62"/>
         <v>0.99309833892224908</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
@@ -22591,60 +22716,60 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="102">
+      <c r="B90" s="98">
         <f ca="1">SUM(OFFSET($B$48:$S$53,-B34,,,2+B34))/SUM(OFFSET($B$48:$S$53,-B34,,,1+B34))</f>
         <v>1.982018956965816</v>
       </c>
-      <c r="C90" s="102">
+      <c r="C90" s="98">
         <f t="shared" ref="C90:L90" ca="1" si="63">SUM(OFFSET($B$48:$S$53,-C34,,,2+C34))/SUM(OFFSET($B$48:$S$53,-C34,,,1+C34))</f>
         <v>1.3675346908098929</v>
       </c>
-      <c r="D90" s="102">
+      <c r="D90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>1.2154532574908545</v>
       </c>
-      <c r="E90" s="102">
+      <c r="E90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>1.1033668678739101</v>
       </c>
-      <c r="F90" s="102">
+      <c r="F90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>1.0481198967754541</v>
       </c>
-      <c r="G90" s="102">
+      <c r="G90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>1.028452156515717</v>
       </c>
-      <c r="H90" s="102">
+      <c r="H90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>1.0044095055300792</v>
       </c>
-      <c r="I90" s="102">
+      <c r="I90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>0.9917599710073054</v>
       </c>
-      <c r="J90" s="102">
+      <c r="J90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>0.99289575529134388</v>
       </c>
-      <c r="K90" s="102">
+      <c r="K90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>0.99806182611811456</v>
       </c>
-      <c r="L90" s="102">
+      <c r="L90" s="98">
         <f t="shared" ca="1" si="63"/>
         <v>0.99443189695655088</v>
       </c>
-      <c r="M90" s="102">
+      <c r="M90" s="98">
         <f ca="1">SUM(OFFSET($B$48:$S$53,-M34,,,2+M34))/SUM(OFFSET($B$48:$S$53,-M34,,,1+M34))</f>
         <v>0.99466958558191632</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -22664,7 +22789,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
@@ -22731,72 +22856,72 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
-      <c r="B93" s="103">
+      <c r="B93" s="99">
         <f ca="1">SUM(OFFSET($B$51:$S$53,-B34,,,2+B34))/SUM(OFFSET($B$51:$S$53,-B34,,,1+B34))</f>
         <v>1.9641373169766521</v>
       </c>
-      <c r="C93" s="103">
+      <c r="C93" s="99">
         <f t="shared" ref="C93:P93" ca="1" si="64">SUM(OFFSET($B$51:$S$53,-C34,,,2+C34))/SUM(OFFSET($B$51:$S$53,-C34,,,1+C34))</f>
         <v>1.2826525250797298</v>
       </c>
-      <c r="D93" s="103">
+      <c r="D93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.2116443441619178</v>
       </c>
-      <c r="E93" s="103">
+      <c r="E93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.1111544429416598</v>
       </c>
-      <c r="F93" s="103">
+      <c r="F93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0184195442363402</v>
       </c>
-      <c r="G93" s="103">
+      <c r="G93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0504493347564303</v>
       </c>
-      <c r="H93" s="103">
+      <c r="H93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0086314242623458</v>
       </c>
-      <c r="I93" s="103">
+      <c r="I93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>0.99421682697082436</v>
       </c>
-      <c r="J93" s="103">
+      <c r="J93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>0.99100758553671664</v>
       </c>
-      <c r="K93" s="103">
+      <c r="K93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0080129066953483</v>
       </c>
-      <c r="L93" s="103">
+      <c r="L93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0011341743831956</v>
       </c>
-      <c r="M93" s="103">
+      <c r="M93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>0.99409789355856315</v>
       </c>
-      <c r="N93" s="103">
+      <c r="N93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0046815479369149</v>
       </c>
-      <c r="O93" s="103">
+      <c r="O93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>0.99623325742285729</v>
       </c>
-      <c r="P93" s="103">
+      <c r="P93" s="99">
         <f t="shared" ca="1" si="64"/>
         <v>1.0005283913704668</v>
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
@@ -22818,7 +22943,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -22891,7 +23016,7 @@
         <v>0.99309833892224908</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -22911,7 +23036,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="1:22" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>15</v>
       </c>
@@ -22933,7 +23058,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:22" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -23003,7 +23128,7 @@
       </c>
       <c r="R98" s="6"/>
     </row>
-    <row r="99" spans="1:22" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I99" s="16"/>
     </row>
     <row r="102" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -23050,7 +23175,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:22" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -23544,7 +23669,7 @@
         <v>182.4368118111488</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1981</v>
       </c>
@@ -23633,7 +23758,7 @@
         <v>957.97618288319791</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1982</v>
       </c>
@@ -23722,7 +23847,7 @@
         <v>709.93129559835506</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1983</v>
       </c>
@@ -23811,7 +23936,7 @@
         <v>550.17552824519953</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1984</v>
       </c>
@@ -23900,7 +24025,7 @@
         <v>2366.8896809483776</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1985</v>
       </c>
@@ -23989,7 +24114,7 @@
         <v>1838.81630212452</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1986</v>
       </c>
@@ -24078,7 +24203,7 @@
         <v>2312.7309729606786</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1987</v>
       </c>
@@ -24167,7 +24292,7 @@
         <v>2890.0635634833379</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1988</v>
       </c>
@@ -24256,7 +24381,7 @@
         <v>5839.6842253362774</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1989</v>
       </c>
@@ -24345,7 +24470,7 @@
         <v>7031.4376851106572</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1990</v>
       </c>
@@ -24434,7 +24559,7 @@
         <v>13676.165037476181</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1991</v>
       </c>
@@ -24523,7 +24648,7 @@
         <v>13768.28108998618</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1992</v>
       </c>
@@ -24612,7 +24737,7 @@
         <v>22830.490462370039</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1993</v>
       </c>
@@ -24701,7 +24826,7 @@
         <v>33067.01555892318</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1994</v>
       </c>
@@ -24790,7 +24915,7 @@
         <v>36600.208193132668</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1995</v>
       </c>
@@ -24879,30 +25004,30 @@
         <v>34378.679705557108</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U128" s="41"/>
       <c r="V128" s="42"/>
     </row>
-    <row r="129" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U129" s="38"/>
       <c r="V129" s="37">
         <f>SUM(V110:V127)</f>
         <v>179154.74729594711</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="96" t="s">
+      <c r="B132" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="96"/>
+      <c r="C132" s="100"/>
       <c r="D132" s="22"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
@@ -24922,7 +25047,7 @@
       <c r="U132" s="20"/>
       <c r="V132" s="22"/>
     </row>
-    <row r="133" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>1</v>
       </c>
@@ -24953,7 +25078,7 @@
       <c r="U133" s="20"/>
       <c r="V133" s="20"/>
     </row>
-    <row r="134" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="24"/>
       <c r="B134" s="27" t="s">
         <v>126</v>
@@ -24983,7 +25108,7 @@
       <c r="U134" s="20"/>
       <c r="V134" s="20"/>
     </row>
-    <row r="135" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B135" s="20" t="s">
         <v>29</v>
       </c>
@@ -25010,7 +25135,7 @@
       <c r="U135" s="20"/>
       <c r="V135" s="20"/>
     </row>
-    <row r="137" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1978</v>
       </c>
@@ -25045,7 +25170,7 @@
       <c r="U137" s="35"/>
       <c r="V137" s="36"/>
     </row>
-    <row r="138" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1979</v>
       </c>
@@ -25080,7 +25205,7 @@
       <c r="U138" s="35"/>
       <c r="V138" s="36"/>
     </row>
-    <row r="139" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1980</v>
       </c>
@@ -25115,7 +25240,7 @@
       <c r="U139" s="35"/>
       <c r="V139" s="36"/>
     </row>
-    <row r="140" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1981</v>
       </c>
@@ -25150,7 +25275,7 @@
       <c r="U140" s="35"/>
       <c r="V140" s="36"/>
     </row>
-    <row r="141" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1982</v>
       </c>
@@ -25185,7 +25310,7 @@
       <c r="U141" s="35"/>
       <c r="V141" s="36"/>
     </row>
-    <row r="142" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1983</v>
       </c>
@@ -25220,7 +25345,7 @@
       <c r="U142" s="35"/>
       <c r="V142" s="36"/>
     </row>
-    <row r="143" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1984</v>
       </c>
@@ -25255,7 +25380,7 @@
       <c r="U143" s="35"/>
       <c r="V143" s="36"/>
     </row>
-    <row r="144" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1985</v>
       </c>
@@ -25290,7 +25415,7 @@
       <c r="U144" s="35"/>
       <c r="V144" s="36"/>
     </row>
-    <row r="145" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1986</v>
       </c>
@@ -25325,7 +25450,7 @@
       <c r="U145" s="35"/>
       <c r="V145" s="36"/>
     </row>
-    <row r="146" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1987</v>
       </c>
@@ -25360,7 +25485,7 @@
       <c r="U146" s="35"/>
       <c r="V146" s="36"/>
     </row>
-    <row r="147" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1988</v>
       </c>
@@ -25395,7 +25520,7 @@
       <c r="U147" s="35"/>
       <c r="V147" s="36"/>
     </row>
-    <row r="148" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1989</v>
       </c>
@@ -25430,7 +25555,7 @@
       <c r="U148" s="35"/>
       <c r="V148" s="36"/>
     </row>
-    <row r="149" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1990</v>
       </c>
@@ -25465,7 +25590,7 @@
       <c r="U149" s="35"/>
       <c r="V149" s="36"/>
     </row>
-    <row r="150" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1991</v>
       </c>
@@ -25500,7 +25625,7 @@
       <c r="U150" s="35"/>
       <c r="V150" s="36"/>
     </row>
-    <row r="151" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1992</v>
       </c>
@@ -25535,7 +25660,7 @@
       <c r="U151" s="35"/>
       <c r="V151" s="36"/>
     </row>
-    <row r="152" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1993</v>
       </c>
@@ -25570,7 +25695,7 @@
       <c r="U152" s="35"/>
       <c r="V152" s="36"/>
     </row>
-    <row r="153" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1994</v>
       </c>
@@ -25605,7 +25730,7 @@
       <c r="U153" s="35"/>
       <c r="V153" s="36"/>
     </row>
-    <row r="154" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1995</v>
       </c>
@@ -25640,14 +25765,14 @@
       <c r="U154" s="35"/>
       <c r="V154" s="36"/>
     </row>
-    <row r="155" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B155" s="36"/>
       <c r="C155" s="42"/>
       <c r="D155" s="89"/>
       <c r="U155" s="41"/>
       <c r="V155" s="42"/>
     </row>
-    <row r="156" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B156" s="37">
         <f t="shared" si="118"/>
         <v>179154.74729594711</v>
@@ -25872,12 +25997,12 @@
       <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -25963,7 +26088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="67"/>
       <c r="N6" s="68"/>
     </row>
@@ -27084,7 +27209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>108</v>
       </c>
@@ -27140,7 +27265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f>'Payment data'!A18</f>
         <v>1978</v>
@@ -27222,7 +27347,7 @@
         <v>21.82302235011807</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f>'Payment data'!A19</f>
         <v>1979</v>
@@ -27301,7 +27426,7 @@
       </c>
       <c r="T36" s="35"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f>'Payment data'!A20</f>
         <v>1980</v>
@@ -27377,7 +27502,7 @@
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f>'Payment data'!A21</f>
         <v>1981</v>
@@ -27450,7 +27575,7 @@
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f>'Payment data'!A22</f>
         <v>1982</v>
@@ -27520,7 +27645,7 @@
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f>'Payment data'!A23</f>
         <v>1983</v>
@@ -27587,7 +27712,7 @@
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f>'Payment data'!A24</f>
         <v>1984</v>
@@ -27651,7 +27776,7 @@
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f>'Payment data'!A25</f>
         <v>1985</v>
@@ -27712,7 +27837,7 @@
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f>'Payment data'!A26</f>
         <v>1986</v>
@@ -28157,7 +28282,7 @@
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -28235,8 +28360,8 @@
         <v>21.82302235011807</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>115</v>
       </c>
@@ -28244,7 +28369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>116</v>
       </c>
@@ -28252,12 +28377,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G59" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="75" t="s">
         <v>117</v>
       </c>
@@ -28283,7 +28408,7 @@
       </c>
       <c r="M61" s="75"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="74" t="s">
         <v>120</v>
       </c>
@@ -29013,7 +29138,7 @@
       <c r="R86" s="69"/>
       <c r="S86" s="69"/>
     </row>
-    <row r="88" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>129</v>
       </c>
@@ -29036,7 +29161,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>130</v>
       </c>
@@ -29058,14 +29183,14 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U90" s="27" t="s">
         <v>33</v>
       </c>
       <c r="V90" s="24"/>
       <c r="W90" s="24"/>
     </row>
-    <row r="91" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>0</v>
       </c>
@@ -29100,7 +29225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
         <v>1</v>
       </c>
@@ -29186,7 +29311,7 @@
       </c>
       <c r="W92" s="24"/>
     </row>
-    <row r="93" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
@@ -29251,7 +29376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <f>A64</f>
         <v>1978</v>
@@ -29344,7 +29469,7 @@
         <v>25469.405999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <f t="shared" ref="A96:B112" si="25">A65</f>
         <v>1979</v>
@@ -29438,7 +29563,7 @@
         <v>19850.721495537426</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <f t="shared" si="25"/>
         <v>1980</v>
@@ -29532,7 +29657,7 @@
         <v>32063.025155537689</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <f t="shared" si="25"/>
         <v>1981</v>
@@ -29626,7 +29751,7 @@
         <v>39273.439361962788</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <f t="shared" si="25"/>
         <v>1982</v>
@@ -29720,7 +29845,7 @@
         <v>40004.759385908037</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <f t="shared" si="25"/>
         <v>1983</v>
@@ -29814,7 +29939,7 @@
         <v>37434.910349264246</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <f t="shared" si="25"/>
         <v>1984</v>
@@ -29908,7 +30033,7 @@
         <v>50224.899992782259</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <f t="shared" si="25"/>
         <v>1985</v>
@@ -30002,7 +30127,7 @@
         <v>42454.487265024072</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <f t="shared" si="25"/>
         <v>1986</v>
@@ -30096,7 +30221,7 @@
         <v>45522.45946076986</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <f t="shared" si="25"/>
         <v>1987</v>
@@ -30190,7 +30315,7 @@
         <v>46139.236526202585</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <f t="shared" si="25"/>
         <v>1988</v>
@@ -30284,7 +30409,7 @@
         <v>43180.148904322516</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <f t="shared" si="25"/>
         <v>1989</v>
@@ -30378,7 +30503,7 @@
         <v>52379.668867494998</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <f t="shared" si="25"/>
         <v>1990</v>
@@ -30472,7 +30597,7 @@
         <v>57375.865312376583</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <f t="shared" si="25"/>
         <v>1991</v>
@@ -30566,7 +30691,7 @@
         <v>62757.854128706334</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <f t="shared" si="25"/>
         <v>1992</v>
@@ -30660,7 +30785,7 @@
         <v>75840.188586317425</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <f t="shared" si="25"/>
         <v>1993</v>
@@ -30754,7 +30879,7 @@
         <v>77101.862887144263</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <f t="shared" si="25"/>
         <v>1994</v>
@@ -30848,7 +30973,7 @@
         <v>83572.117078115276</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <f t="shared" si="25"/>
         <v>1995</v>
@@ -30942,7 +31067,7 @@
         <v>92718.808365684832</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
@@ -30966,7 +31091,7 @@
       <c r="V113" s="36"/>
       <c r="W113" s="36"/>
     </row>
-    <row r="114" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -31030,7 +31155,7 @@
       <c r="V114" s="42"/>
       <c r="W114" s="41"/>
     </row>
-    <row r="115" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U115" s="38"/>
       <c r="V115" s="37">
         <f>SUM(V95:V112)</f>
@@ -31116,27 +31241,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="97" t="s">
+      <c r="B122" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="97"/>
-      <c r="D122" s="97"/>
-    </row>
-    <row r="123" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
         <v>1</v>
       </c>
@@ -31525,15 +31650,15 @@
         <v>1.0078242070534993</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>0</v>
       </c>
@@ -31559,7 +31684,7 @@
       <c r="S151" s="24"/>
       <c r="T151" s="24"/>
     </row>
-    <row r="152" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
         <v>1</v>
       </c>
@@ -32141,7 +32266,7 @@
       <c r="S160" s="87"/>
       <c r="T160" s="87"/>
     </row>
-    <row r="161" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <f t="shared" ref="A161:B161" si="83">A129</f>
         <v>1983</v>
@@ -32205,7 +32330,7 @@
       <c r="S161" s="88"/>
       <c r="T161" s="88"/>
     </row>
-    <row r="162" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <f t="shared" ref="A162:B162" si="84">A130</f>
         <v>1984</v>
@@ -32266,7 +32391,7 @@
       <c r="S162" s="88"/>
       <c r="T162" s="88"/>
     </row>
-    <row r="163" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <f t="shared" ref="A163:B163" si="85">A131</f>
         <v>1985</v>
@@ -32324,7 +32449,7 @@
       <c r="S163" s="88"/>
       <c r="T163" s="88"/>
     </row>
-    <row r="164" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <f t="shared" ref="A164:B164" si="86">A132</f>
         <v>1986</v>
@@ -32379,7 +32504,7 @@
       <c r="S164" s="88"/>
       <c r="T164" s="88"/>
     </row>
-    <row r="165" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <f t="shared" ref="A165:B165" si="87">A133</f>
         <v>1987</v>
@@ -32431,7 +32556,7 @@
       <c r="S165" s="88"/>
       <c r="T165" s="88"/>
     </row>
-    <row r="166" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <f t="shared" ref="A166:B166" si="88">A134</f>
         <v>1988</v>
@@ -32480,7 +32605,7 @@
       <c r="S166" s="88"/>
       <c r="T166" s="88"/>
     </row>
-    <row r="167" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <f t="shared" ref="A167:B167" si="89">A135</f>
         <v>1989</v>
@@ -32526,7 +32651,7 @@
       <c r="S167" s="88"/>
       <c r="T167" s="88"/>
     </row>
-    <row r="168" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <f t="shared" ref="A168:B168" si="90">A136</f>
         <v>1990</v>
@@ -32569,7 +32694,7 @@
       <c r="S168" s="88"/>
       <c r="T168" s="88"/>
     </row>
-    <row r="169" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <f t="shared" ref="A169:B169" si="91">A137</f>
         <v>1991</v>
@@ -32609,7 +32734,7 @@
       <c r="S169" s="88"/>
       <c r="T169" s="88"/>
     </row>
-    <row r="170" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <f t="shared" ref="A170:B170" si="92">A138</f>
         <v>1992</v>
@@ -32646,7 +32771,7 @@
       <c r="S170" s="88"/>
       <c r="T170" s="88"/>
     </row>
-    <row r="171" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <f t="shared" ref="A171:B171" si="93">A139</f>
         <v>1993</v>
@@ -32680,7 +32805,7 @@
       <c r="S171" s="88"/>
       <c r="T171" s="88"/>
     </row>
-    <row r="172" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <f t="shared" ref="A172:B172" si="94">A140</f>
         <v>1994</v>

--- a/xlfiles/Chapter3.xlsx
+++ b/xlfiles/Chapter3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849FDDE-7618-3944-AA2F-BECAAF490705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEDF7F-5462-F64A-805B-0E66CD7F20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="28720" windowHeight="21580" activeTab="3" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment data" sheetId="1" r:id="rId1"/>
@@ -2418,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092A182E-02B0-8447-9474-8F02EF93B344}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -2442,127 +2442,127 @@
         <v>1964</v>
       </c>
       <c r="D3" s="3">
-        <f>C3+1</f>
+        <f t="shared" ref="D3:AH3" si="0">C3+1</f>
         <v>1965</v>
       </c>
       <c r="E3" s="3">
-        <f>D3+1</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="F3" s="3">
-        <f>E3+1</f>
+        <f t="shared" si="0"/>
         <v>1967</v>
       </c>
       <c r="G3" s="3">
-        <f>F3+1</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="H3" s="3">
-        <f>G3+1</f>
+        <f t="shared" si="0"/>
         <v>1969</v>
       </c>
       <c r="I3" s="3">
-        <f>H3+1</f>
+        <f t="shared" si="0"/>
         <v>1970</v>
       </c>
       <c r="J3" s="3">
-        <f>I3+1</f>
+        <f t="shared" si="0"/>
         <v>1971</v>
       </c>
       <c r="K3" s="3">
-        <f>J3+1</f>
+        <f t="shared" si="0"/>
         <v>1972</v>
       </c>
       <c r="L3" s="3">
-        <f>K3+1</f>
+        <f t="shared" si="0"/>
         <v>1973</v>
       </c>
       <c r="M3" s="3">
-        <f>L3+1</f>
+        <f t="shared" si="0"/>
         <v>1974</v>
       </c>
       <c r="N3" s="3">
-        <f>M3+1</f>
+        <f t="shared" si="0"/>
         <v>1975</v>
       </c>
       <c r="O3" s="3">
-        <f>N3+1</f>
+        <f t="shared" si="0"/>
         <v>1976</v>
       </c>
       <c r="P3" s="3">
-        <f>O3+1</f>
+        <f t="shared" si="0"/>
         <v>1977</v>
       </c>
       <c r="Q3" s="3">
-        <f>P3+1</f>
+        <f t="shared" si="0"/>
         <v>1978</v>
       </c>
       <c r="R3" s="3">
-        <f>Q3+1</f>
+        <f t="shared" si="0"/>
         <v>1979</v>
       </c>
       <c r="S3" s="3">
-        <f>R3+1</f>
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="T3" s="3">
-        <f>S3+1</f>
+        <f t="shared" si="0"/>
         <v>1981</v>
       </c>
       <c r="U3" s="3">
-        <f>T3+1</f>
+        <f t="shared" si="0"/>
         <v>1982</v>
       </c>
       <c r="V3" s="3">
-        <f>U3+1</f>
+        <f t="shared" si="0"/>
         <v>1983</v>
       </c>
       <c r="W3" s="3">
-        <f>V3+1</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="X3" s="3">
-        <f>W3+1</f>
+        <f t="shared" si="0"/>
         <v>1985</v>
       </c>
       <c r="Y3" s="3">
-        <f>X3+1</f>
+        <f t="shared" si="0"/>
         <v>1986</v>
       </c>
       <c r="Z3" s="3">
-        <f>Y3+1</f>
+        <f t="shared" si="0"/>
         <v>1987</v>
       </c>
       <c r="AA3" s="3">
-        <f>Z3+1</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="AB3" s="3">
-        <f>AA3+1</f>
+        <f t="shared" si="0"/>
         <v>1989</v>
       </c>
       <c r="AC3" s="3">
-        <f>AB3+1</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="AD3" s="3">
-        <f>AC3+1</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="AE3" s="3">
-        <f>AD3+1</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="AF3" s="3">
-        <f>AE3+1</f>
+        <f t="shared" si="0"/>
         <v>1993</v>
       </c>
       <c r="AG3" s="3">
-        <f>AF3+1</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="AH3" s="3">
-        <f>AG3+1</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A35" si="0">A4+1</f>
+        <f t="shared" ref="A5:A35" si="1">A4+1</f>
         <v>1965</v>
       </c>
       <c r="P5" s="3">
@@ -2585,13 +2585,13 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1966</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1967</v>
       </c>
       <c r="N7" s="3">
@@ -2600,7 +2600,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1968</v>
       </c>
       <c r="M8" s="3">
@@ -2612,7 +2612,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1969</v>
       </c>
       <c r="L9" s="3">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1970</v>
       </c>
       <c r="K10" s="3">
@@ -2651,7 +2651,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1971</v>
       </c>
       <c r="J11" s="3">
@@ -2690,7 +2690,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="B12" s="4"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1973</v>
       </c>
       <c r="B13" s="4"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1974</v>
       </c>
       <c r="B14" s="4"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1975</v>
       </c>
       <c r="B15" s="4"/>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1976</v>
       </c>
       <c r="B16" s="4"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1977</v>
       </c>
       <c r="B17" s="4"/>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1978</v>
       </c>
       <c r="B18" s="4"/>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1979</v>
       </c>
       <c r="B19" s="4"/>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1980</v>
       </c>
       <c r="B20" s="4"/>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1981</v>
       </c>
       <c r="B21" s="4"/>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1982</v>
       </c>
       <c r="B22" s="4"/>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1983</v>
       </c>
       <c r="B23" s="4"/>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="B24" s="4"/>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1985</v>
       </c>
       <c r="B25" s="4"/>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1986</v>
       </c>
       <c r="B26" s="4"/>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1987</v>
       </c>
       <c r="B27" s="4"/>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1988</v>
       </c>
       <c r="B28" s="4"/>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1989</v>
       </c>
       <c r="B29" s="4"/>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1990</v>
       </c>
       <c r="B30" s="4"/>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1991</v>
       </c>
       <c r="B31" s="4"/>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1992</v>
       </c>
       <c r="B32" s="4"/>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1993</v>
       </c>
       <c r="B33" s="4"/>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1994</v>
       </c>
       <c r="B34" s="4"/>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="B35" s="4"/>
@@ -3670,7 +3670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C7F9E-393E-0949-9322-8F861CCB9A2B}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -9851,8 +9851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B731E-4C3A-8F4F-A603-EE25F9E67141}">
   <dimension ref="A1:W174"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19710,7 +19710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F9F421-4085-D148-B5A0-530C7EB0692A}">
   <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>

--- a/xlfiles/Chapter3.xlsx
+++ b/xlfiles/Chapter3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/xlfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEDF7F-5462-F64A-805B-0E66CD7F20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD528A5C-AB6D-5B40-ACB3-9732BCB5AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="28720" windowHeight="21580" activeTab="3" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="28720" windowHeight="21580" xr2:uid="{065E86FA-80AD-4F4F-B6B7-2E1659088BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment data" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E1BC1293-A4E0-AE4C-B738-4D4ABF5DB8DD}</author>
+  </authors>
+  <commentList>
+    <comment ref="S69" authorId="0" shapeId="0" xr:uid="{E1BC1293-A4E0-AE4C-B738-4D4ABF5DB8DD}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    So here we have a linear regression so that
+$$ \ln \left(v(j)-1\right) = \alpha_0+\alpha_1 j,$$
+where $\alpha_0 =$B74 and $\alpha_1 =$B73.
+The tail factor in S69 should be
+$$ 1+ \sum_{j=17}^\infty \exp \left\{   \alpha_0  +\alpha_1 j   \right\} = 1+ e^{\alpha_0+17 \alpha_1 }\sum_{j=0}^\infty \exp \left\{   \alpha_1 j   \right\} = 1+ \frac{e^{\alpha_0+17 \alpha_1 }}{1-e^{\alpha_1}}.$$
+Now, R76 is equal to 
+$$ v(16) =1+ e^{\alpha_0 + 16 \alpha_1}$$
+so that if you subtract 1 and multiply this by $e^{\alpha_1}=$ C73 , then you get the numerator in the expression above.
+QED
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +561,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,6 +644,12 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2119,6 +2152,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Benjamin Avanzi" id="{49E61BEA-2375-4F4E-814E-148D2044F4D9}" userId="Benjamin Avanzi" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2414,12 +2453,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="S69" dT="2024-08-21T23:46:57.82" personId="{49E61BEA-2375-4F4E-814E-148D2044F4D9}" id="{E1BC1293-A4E0-AE4C-B738-4D4ABF5DB8DD}">
+    <text xml:space="preserve">So here we have a linear regression so that
+$$ \ln \left(v(j)-1\right) = \alpha_0+\alpha_1 j,$$
+where $\alpha_0 =$B74 and $\alpha_1 =$B73.
+The tail factor in S69 should be
+$$ 1+ \sum_{j=17}^\infty \exp \left\{   \alpha_0  +\alpha_1 j   \right\} = 1+ e^{\alpha_0+17 \alpha_1 }\sum_{j=0}^\infty \exp \left\{   \alpha_1 j   \right\} = 1+ \frac{e^{\alpha_0+17 \alpha_1 }}{1-e^{\alpha_1}}.$$
+Now, R76 is equal to 
+$$ v(16) =1+ e^{\alpha_0 + 16 \alpha_1}$$
+so that if you subtract 1 and multiply this by $e^{\alpha_1}=$ C73 , then you get the numerator in the expression above.
+QED
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092A182E-02B0-8447-9474-8F02EF93B344}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,131 +2495,131 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C3" s="3">
-        <v>1964</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:AH3" si="0">C3+1</f>
-        <v>1965</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>1966</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>1967</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>1968</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>1969</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>6</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>1971</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
-        <v>1972</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="0"/>
-        <v>1973</v>
+        <v>9</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="0"/>
-        <v>1974</v>
+        <v>10</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>1975</v>
+        <v>11</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>1976</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="0"/>
-        <v>1977</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="0"/>
-        <v>1978</v>
+        <v>14</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" si="0"/>
-        <v>1979</v>
+        <v>15</v>
       </c>
       <c r="S3" s="3">
         <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>16</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" si="0"/>
-        <v>1981</v>
+        <v>17</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" si="0"/>
-        <v>1982</v>
+        <v>18</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="0"/>
-        <v>1983</v>
+        <v>19</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" si="0"/>
-        <v>1984</v>
+        <v>20</v>
       </c>
       <c r="X3" s="3">
         <f t="shared" si="0"/>
-        <v>1985</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" si="0"/>
-        <v>1986</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" si="0"/>
-        <v>1987</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="0"/>
-        <v>1988</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="0"/>
-        <v>1989</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>1990</v>
+        <v>26</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="0"/>
-        <v>1991</v>
+        <v>27</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" si="0"/>
-        <v>1992</v>
+        <v>28</v>
       </c>
       <c r="AF3" s="3">
         <f t="shared" si="0"/>
-        <v>1993</v>
+        <v>29</v>
       </c>
       <c r="AG3" s="3">
         <f t="shared" si="0"/>
-        <v>1994</v>
+        <v>30</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="0"/>
-        <v>1995</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -9848,11 +9904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B731E-4C3A-8F4F-A603-EE25F9E67141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B731E-4C3A-8F4F-A603-EE25F9E67141}">
   <dimension ref="A1:W174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18924,6 +18980,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22109,7 +22166,7 @@
         <v>0.99277011648145663</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <f t="shared" si="61"/>
         <v>1984</v>
@@ -22206,7 +22263,7 @@
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <f t="shared" si="61"/>
         <v>1986</v>
@@ -22580,7 +22637,7 @@
         <v>0.99309833892224908</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="97" t="s">
         <v>151</v>
       </c>
@@ -22716,7 +22773,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -22856,7 +22913,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="99">
         <f ca="1">SUM(OFFSET($B$51:$S$53,-B34,,,2+B34))/SUM(OFFSET($B$51:$S$53,-B34,,,1+B34))</f>
@@ -23131,7 +23188,7 @@
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I99" s="16"/>
     </row>
-    <row r="102" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
         <v>98</v>
       </c>
@@ -23153,7 +23210,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
         <v>99</v>
       </c>
@@ -23196,7 +23253,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>0</v>
       </c>
@@ -23225,7 +23282,7 @@
       </c>
       <c r="V105" s="24"/>
     </row>
-    <row r="106" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>1</v>
       </c>
@@ -23254,7 +23311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="24"/>
       <c r="B107" s="24">
         <v>0</v>
@@ -23337,7 +23394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>29</v>
       </c>
@@ -23402,7 +23459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1978</v>
       </c>
@@ -23491,7 +23548,7 @@
         <v>-0.40599999999540159</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1979</v>
       </c>
@@ -23580,7 +23637,7 @@
         <v>154.17099999999482</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1980</v>
       </c>
